--- a/Test/20220926oe22.03test/测试_提供相关安装文档.xlsx
+++ b/Test/20220926oe22.03test/测试_提供相关安装文档.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">项目名称：</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t xml:space="preserve">通过</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄烁</t>
   </si>
   <si>
     <t xml:space="preserve">9.28 02：45</t>
@@ -178,6 +181,7 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -229,7 +233,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -247,10 +251,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -294,16 +294,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>881280</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1080</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>209160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>2551680</xdr:colOff>
+      <xdr:colOff>2561400</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -316,8 +316,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19521360" y="725400"/>
-          <a:ext cx="2560680" cy="1668240"/>
+          <a:off x="19531080" y="647280"/>
+          <a:ext cx="2560320" cy="1667880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -340,19 +340,19 @@
   <dimension ref="A1:U1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R4" activeCellId="0" sqref="R4"/>
+      <selection pane="topLeft" activeCell="U13" activeCellId="0" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="14.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="14.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.13"/>
@@ -362,9 +362,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="10.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="10.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="33.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="33.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="22" style="1" width="9"/>
   </cols>
   <sheetData>
@@ -399,134 +399,136 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
     </row>
-    <row r="3" s="8" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row r="3" s="7" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9" t="s">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9" t="s">
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9" t="s">
+      <c r="S4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="9"/>
+      <c r="T4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="8"/>
     </row>
     <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
